--- a/Utils/student.xlsx
+++ b/Utils/student.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse\SeliniumGuvi\Utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412F49C4-0197-40F9-A81F-D191572856A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1C2B1B-0893-44FE-91C3-17D27402845C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>Riya</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Yuva</t>
   </si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Mani</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -376,52 +376,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C1" sqref="C1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
